--- a/medicine/Enfance/Croûte_de_lait/Croûte_de_lait.xlsx
+++ b/medicine/Enfance/Croûte_de_lait/Croûte_de_lait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cro%C3%BBte_de_lait</t>
+          <t>Croûte_de_lait</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les croûtes de lait sont, chez les bébés et les très jeunes enfants (jusqu'à 2 ans), un excès de sébum qui se manifeste sous la forme d'une lésion sèche  et croûteuse, voire humide. Elles sont localisées le plus souvent au niveau du front, des sourcils et des fontanelles.
 </t>
